--- a/Project Outputs/BOM/Bill of Materials-BOM.xlsx
+++ b/Project Outputs/BOM/Bill of Materials-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\altium workspace\RCL\SQ-PCB-Template\Project Outputs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{715C1163-9989-4257-8829-71EA07557B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62F92DAA-55CE-45F4-8A21-BFE0FE297DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{A68C83A5-A9B2-47D5-B9DC-160379C620C9}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{71B0332A-38DE-4B42-8029-DC1289E4B9E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-BOM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
   <si>
     <t>Designator</t>
   </si>
@@ -69,6 +69,9 @@
     <t>HelpURL</t>
   </si>
   <si>
+    <t>System</t>
+  </si>
+  <si>
     <t>C1, C2, C13, C14, C15, C16</t>
   </si>
   <si>
@@ -106,6 +109,9 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Connector</t>
   </si>
   <si>
     <t>IC1</t>
@@ -614,8 +620,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14BBA04-61F4-459A-98BD-397DF458114C}">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EF8147-7917-4D7D-9A40-C3D8FCB8059C}">
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,9 +637,10 @@
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -664,322 +671,346 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="K12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project Outputs/BOM/Bill of Materials-BOM.xlsx
+++ b/Project Outputs/BOM/Bill of Materials-BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\altium workspace\RCL\SQ-PCB-Template\Project Outputs\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\altium workspace\SQ-PCB-Template\Project Outputs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62F92DAA-55CE-45F4-8A21-BFE0FE297DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7629201-D076-4451-A4A7-E552410BC761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{71B0332A-38DE-4B42-8029-DC1289E4B9E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{71B0332A-38DE-4B42-8029-DC1289E4B9E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-BOM" sheetId="1" r:id="rId1"/>
@@ -144,106 +144,106 @@
     <t>Yageo or NXP</t>
   </si>
   <si>
+    <t>0.062Вт 0402 4.7 кОм, 1%, Чип резистор (SMD)</t>
+  </si>
+  <si>
+    <t>4.7k</t>
+  </si>
+  <si>
+    <t>RC0402</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product0/9000189640</t>
+  </si>
+  <si>
+    <t>R14, R15, R16</t>
+  </si>
+  <si>
+    <t>RC0402FR-07330RL</t>
+  </si>
+  <si>
+    <t>0.062Вт 0402 330 Ом, 1%, Чип резистор (SMD)</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>RC0402FR-074K3L</t>
+  </si>
+  <si>
+    <t>0.062Вт 0402 4.3 кОм, 1%, Чип резистор (SMD)</t>
+  </si>
+  <si>
+    <t>4.3k</t>
+  </si>
+  <si>
+    <t>RC0402FR-072K4L</t>
+  </si>
+  <si>
+    <t>0.062Вт 0402 2.4 кОм, 1%, Чип резистор (SMD)</t>
+  </si>
+  <si>
+    <t>2.4k</t>
+  </si>
+  <si>
+    <t>SWD1</t>
+  </si>
+  <si>
+    <t>SM04B-GHS-TB(LF)(SN)</t>
+  </si>
+  <si>
+    <t>Conn Shrouded Header HDR 4 POS 1.25mm Solder ST SMD Reel</t>
+  </si>
+  <si>
+    <t>DNP</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>MaxLinear, Inc.</t>
+  </si>
+  <si>
+    <t>SPX3819M5-L-3-3/TR</t>
+  </si>
+  <si>
+    <t>Low Dropout Voltage Regulator, 3.3V 0.5A, В±1%, 2.5 to 16 Vin, 5-Pin SOT-23</t>
+  </si>
+  <si>
+    <t>3V3</t>
+  </si>
+  <si>
+    <t>SOT-23-5 Exar</t>
+  </si>
+  <si>
+    <t>http://www.farnell.com/datasheets/2614478.pdf</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>CSTCE8M00G55-R0 or CSTCE8M00G52-R0</t>
+  </si>
+  <si>
+    <t>Ceramic Resonator 8MHz ??0.5% _Tol_ ??0.2% _Stability_ 33pF 40Ohm 3-Pin CSMD T/R</t>
+  </si>
+  <si>
+    <t>8MHz</t>
+  </si>
+  <si>
+    <t>SMD-3 Murata</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/en-eu/api/pdfdownloadapi?cate=&amp;partno=CSTCE8M00G55-R0</t>
+  </si>
+  <si>
+    <t>Rv1</t>
+  </si>
+  <si>
+    <t>Rv2</t>
+  </si>
+  <si>
     <t>RC0402FR-074K7L</t>
-  </si>
-  <si>
-    <t>0.062Вт 0402 4.7 кОм, 1%, Чип резистор (SMD)</t>
-  </si>
-  <si>
-    <t>4.7k</t>
-  </si>
-  <si>
-    <t>RC0402</t>
-  </si>
-  <si>
-    <t>https://www.chipdip.ru/product0/9000189640</t>
-  </si>
-  <si>
-    <t>R14, R15, R16</t>
-  </si>
-  <si>
-    <t>RC0402FR-07330RL</t>
-  </si>
-  <si>
-    <t>0.062Вт 0402 330 Ом, 1%, Чип резистор (SMD)</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>Rv1</t>
-  </si>
-  <si>
-    <t>RC0402FR-074K3L</t>
-  </si>
-  <si>
-    <t>0.062Вт 0402 4.3 кОм, 1%, Чип резистор (SMD)</t>
-  </si>
-  <si>
-    <t>4.3k</t>
-  </si>
-  <si>
-    <t>Rv2</t>
-  </si>
-  <si>
-    <t>RC0402FR-072K4L</t>
-  </si>
-  <si>
-    <t>0.062Вт 0402 2.4 кОм, 1%, Чип резистор (SMD)</t>
-  </si>
-  <si>
-    <t>2.4k</t>
-  </si>
-  <si>
-    <t>SWD1</t>
-  </si>
-  <si>
-    <t>SM04B-GHS-TB(LF)(SN)</t>
-  </si>
-  <si>
-    <t>Conn Shrouded Header HDR 4 POS 1.25mm Solder ST SMD Reel</t>
-  </si>
-  <si>
-    <t>DNP</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>MaxLinear, Inc.</t>
-  </si>
-  <si>
-    <t>SPX3819M5-L-3-3/TR</t>
-  </si>
-  <si>
-    <t>Low Dropout Voltage Regulator, 3.3V 0.5A, В±1%, 2.5 to 16 Vin, 5-Pin SOT-23</t>
-  </si>
-  <si>
-    <t>3V3</t>
-  </si>
-  <si>
-    <t>SOT-23-5 Exar</t>
-  </si>
-  <si>
-    <t>http://www.farnell.com/datasheets/2614478.pdf</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>CSTCE8M00G55-R0 or CSTCE8M00G52-R0</t>
-  </si>
-  <si>
-    <t>Ceramic Resonator 8MHz ??0.5% _Tol_ ??0.2% _Stability_ 33pF 40Ohm 3-Pin CSMD T/R</t>
-  </si>
-  <si>
-    <t>8MHz</t>
-  </si>
-  <si>
-    <t>SMD-3 Murata</t>
-  </si>
-  <si>
-    <t>https://www.murata.com/en-eu/api/pdfdownloadapi?cate=&amp;partno=CSTCE8M00G55-R0</t>
   </si>
 </sst>
 </file>
@@ -623,7 +623,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EF8147-7917-4D7D-9A40-C3D8FCB8059C}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -798,16 +800,16 @@
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>17</v>
@@ -816,7 +818,7 @@
         <v>18</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>18</v>
@@ -824,7 +826,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -833,16 +835,16 @@
         <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>17</v>
@@ -851,7 +853,7 @@
         <v>18</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>18</v>
@@ -859,7 +861,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -868,29 +870,29 @@
         <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -899,29 +901,29 @@
         <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -930,10 +932,10 @@
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
@@ -943,7 +945,7 @@
         <v>17</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="2" t="s">
@@ -952,38 +954,38 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -992,23 +994,23 @@
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K12" s="1"/>
     </row>
